--- a/Original_Excel_Files/H.xlsx
+++ b/Original_Excel_Files/H.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BBCDE6-8057-4EEE-8F3A-EB1C49195D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84596067-7B7B-443B-86B0-56CA977A76B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29505" yWindow="765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,23 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>H62 .B286 1999</t>
   </si>
   <si>
-    <t>Schick Jr.</t>
-  </si>
-  <si>
-    <t>Theodore</t>
-  </si>
-  <si>
-    <t>Vaughn</t>
-  </si>
-  <si>
-    <t>Lewis</t>
-  </si>
-  <si>
     <t>1999 P</t>
   </si>
   <si>
@@ -43,18 +31,6 @@
     <t>H8941 1995</t>
   </si>
   <si>
-    <t>Messer</t>
-  </si>
-  <si>
-    <t>Ellen (Ed)</t>
-  </si>
-  <si>
-    <t>Uvin</t>
-  </si>
-  <si>
-    <t>Peter (Ed)</t>
-  </si>
-  <si>
     <t>1996 O</t>
   </si>
   <si>
@@ -64,12 +40,6 @@
     <t>HA29 .H82</t>
   </si>
   <si>
-    <t>Huff</t>
-  </si>
-  <si>
-    <t>Darrell</t>
-  </si>
-  <si>
     <t>1954 P</t>
   </si>
   <si>
@@ -79,72 +49,39 @@
     <t>H1 .A4 .v. 548</t>
   </si>
   <si>
-    <t>The American Academy of Political and Social Science</t>
-  </si>
-  <si>
     <t>The Annals: The Holocaust: Remembering for the Future</t>
   </si>
   <si>
     <t>H41 .M54 1983</t>
   </si>
   <si>
-    <t>Miller, Patrick McC. and Wilson, Michael J.</t>
-  </si>
-  <si>
     <t>A Dictionary of Social Science Methods</t>
   </si>
   <si>
     <t>H61 .R75 1966</t>
   </si>
   <si>
-    <t>Rudner, Richard</t>
-  </si>
-  <si>
     <t>Philosophy of Social Science</t>
   </si>
   <si>
     <t>H62 .J37 1996</t>
   </si>
   <si>
-    <t>Jay, Martin</t>
-  </si>
-  <si>
     <t>The Dialectical Imagination: a History of the Frankfurt school and the institute of social research, 1923-1950.</t>
   </si>
   <si>
     <t>H91 .C5 1963</t>
   </si>
   <si>
-    <t>Chase, Stuart</t>
-  </si>
-  <si>
     <t>The Proper Study of Mankind</t>
   </si>
   <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Patrick McC.</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>Michael J.</t>
-  </si>
-  <si>
     <t>1983 P</t>
   </si>
   <si>
     <t>H59 .G24 J63 1980</t>
   </si>
   <si>
-    <t>Galtung</t>
-  </si>
-  <si>
-    <t>Johan</t>
-  </si>
-  <si>
     <t>1980 P</t>
   </si>
   <si>
@@ -154,24 +91,12 @@
     <t>H33 .R5 19454</t>
   </si>
   <si>
-    <t>Riesman</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
     <t>Selected Essays from Individualism Reconsidered</t>
   </si>
   <si>
     <t>H53 .U5 H35</t>
   </si>
   <si>
-    <t>Harris</t>
-  </si>
-  <si>
-    <t>Fred R.</t>
-  </si>
-  <si>
     <t>1970 P</t>
   </si>
   <si>
@@ -181,9 +106,6 @@
     <t>H61 .B638</t>
   </si>
   <si>
-    <t>Braybrooke</t>
-  </si>
-  <si>
     <t>1965 P</t>
   </si>
   <si>
@@ -193,12 +115,6 @@
     <t>H61 .B66</t>
   </si>
   <si>
-    <t>Brodbeck</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
     <t>1968 H</t>
   </si>
   <si>
@@ -208,51 +124,24 @@
     <t>H61 .H682 1980</t>
   </si>
   <si>
-    <t>Hoover</t>
-  </si>
-  <si>
-    <t>Kenneth R.</t>
-  </si>
-  <si>
     <t>The Elements of Social Scientific Thinking</t>
   </si>
   <si>
     <t>H61 .N3</t>
   </si>
   <si>
-    <t>Natanson</t>
-  </si>
-  <si>
-    <t>Maurice (Ed)</t>
-  </si>
-  <si>
     <t>1963 P</t>
   </si>
   <si>
     <t>Philosophy of the Social Sciences</t>
   </si>
   <si>
-    <t>Rudner</t>
-  </si>
-  <si>
-    <t>Richard S.</t>
-  </si>
-  <si>
     <t>1966 P</t>
   </si>
   <si>
     <t>H83 .O52</t>
   </si>
   <si>
-    <t>Naftalin</t>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>et al.</t>
-  </si>
-  <si>
     <t>1953 H</t>
   </si>
   <si>
@@ -262,16 +151,19 @@
     <t>H97 .M55 1992</t>
   </si>
   <si>
-    <t>Mills</t>
-  </si>
-  <si>
-    <t>Claudia</t>
-  </si>
-  <si>
     <t>1992 P</t>
   </si>
   <si>
     <t>Values &amp; Public Policy</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -334,23 +226,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,481 +579,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:G43"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="102.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1996</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1983</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8">
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1966</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
         <v>1996</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1963</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1983</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1966</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1996</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1963</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G44">
-    <sortCondition ref="A1:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C42">
+    <sortCondition ref="A1:A42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
